--- a/Correlations.xlsx
+++ b/Correlations.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessemurray/Desktop/Tree Problem/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessemurray/Desktop/Tree/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F89F18A6-46EF-2D4D-A239-126D47C813FB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3628D3D4-00D8-DE40-B031-789FCB51B1A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="460" windowWidth="14400" windowHeight="17540" xr2:uid="{EABFD345-046A-E644-9AD6-8A9944DA827D}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{EABFD345-046A-E644-9AD6-8A9944DA827D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Mine</t>
   </si>
@@ -49,6 +49,15 @@
   </si>
   <si>
     <t>M-Galton</t>
+  </si>
+  <si>
+    <t>SSA 1980-82</t>
+  </si>
+  <si>
+    <t>SSA 1980-85</t>
+  </si>
+  <si>
+    <t>Brooking-book-income</t>
   </si>
 </sst>
 </file>
@@ -409,422 +418,771 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20998873-52FC-EF46-9224-F33BD4DDFA33}">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>44</v>
       </c>
       <c r="B2">
+        <v>42.6</v>
+      </c>
+      <c r="C2">
         <v>46</v>
       </c>
-      <c r="C2">
-        <f>CORREL(A2:A26,B2:B26)</f>
+      <c r="D2">
+        <f>CORREL(A2:A26,C2:C26)</f>
         <v>0.9593702281685953</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>30</v>
       </c>
-      <c r="E2">
-        <f>CORREL(A2:A26,D2:D26)</f>
+      <c r="F2">
+        <f>CORREL(A2:A26,E2:E26)</f>
         <v>0.96424028184330668</v>
       </c>
-      <c r="F2">
-        <f>CORREL(B2:B26,D2:D26)</f>
+      <c r="G2">
+        <f>CORREL(C2:C26,E2:E26)</f>
         <v>0.91467921917300865</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>44</v>
       </c>
-      <c r="H2">
-        <f>CORREL(A2:A26,G2:G26)</f>
+      <c r="I2">
+        <f>CORREL(A2:A26,H2:H26)</f>
         <v>0.90134224649654404</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J2">
+        <v>36.5</v>
+      </c>
+      <c r="K2">
+        <f>CORREL(J2:J26,B2:B26)</f>
+        <v>0.97938110758769259</v>
+      </c>
+      <c r="L2">
+        <v>33.1</v>
+      </c>
+      <c r="M2">
+        <f>CORREL(L2:L26,B2:B26)</f>
+        <v>0.97608262185301264</v>
+      </c>
+      <c r="N2">
+        <v>39</v>
+      </c>
+      <c r="O2">
+        <f>CORREL(N2:N26,B2:B26)</f>
+        <v>0.95302226199287332</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>25</v>
       </c>
       <c r="B3">
+        <v>25.5</v>
+      </c>
+      <c r="C3">
         <v>30</v>
       </c>
-      <c r="C3">
-        <f>C2^2</f>
+      <c r="D3">
+        <f>D2^2</f>
         <v>0.92039123469626261</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>26</v>
-      </c>
-      <c r="E3">
-        <f>E2^2</f>
-        <v>0.92975932112925952</v>
       </c>
       <c r="F3">
         <f>F2^2</f>
+        <v>0.92975932112925952</v>
+      </c>
+      <c r="G3">
+        <f>G2^2</f>
         <v>0.83663807398694479</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>32</v>
       </c>
-      <c r="H3">
-        <f>H2^2</f>
+      <c r="I3">
+        <f>I2^2</f>
         <v>0.81241784531943673</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J3">
+        <v>23.6</v>
+      </c>
+      <c r="K3">
+        <f>K2^2</f>
+        <v>0.95918735389969545</v>
+      </c>
+      <c r="L3">
+        <v>27.7</v>
+      </c>
+      <c r="M3">
+        <f>M2^2</f>
+        <v>0.95273728468345131</v>
+      </c>
+      <c r="N3">
+        <v>23</v>
+      </c>
+      <c r="O3">
+        <f>O2^2</f>
+        <v>0.90825143185401291</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>16</v>
       </c>
       <c r="B4">
+        <v>16.8</v>
+      </c>
+      <c r="C4">
         <v>13</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>20</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J4">
+        <v>17</v>
+      </c>
+      <c r="L4">
+        <v>18.7</v>
+      </c>
+      <c r="N4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>10</v>
       </c>
       <c r="B5">
+        <v>10.6</v>
+      </c>
+      <c r="C5">
         <v>7</v>
       </c>
       <c r="D5">
+        <f>CORREL(B2:B26,C2:C26)</f>
+        <v>0.96286166380805893</v>
+      </c>
+      <c r="E5">
         <v>14</v>
       </c>
-      <c r="G5">
+      <c r="F5">
+        <f>CORREL(B2:B26,E2:E26)</f>
+        <v>0.96811388970521506</v>
+      </c>
+      <c r="H5">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J5">
+        <v>11.9</v>
+      </c>
+      <c r="L5">
+        <v>12.7</v>
+      </c>
+      <c r="N5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
+        <v>4.5</v>
+      </c>
+      <c r="C6">
         <v>4</v>
       </c>
       <c r="D6">
+        <f>D5^2</f>
+        <v>0.92710258363122355</v>
+      </c>
+      <c r="E6">
         <v>11</v>
       </c>
-      <c r="G6">
+      <c r="F6">
+        <f>F5^2</f>
+        <v>0.9372445034401613</v>
+      </c>
+      <c r="H6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J6">
+        <v>10.9</v>
+      </c>
+      <c r="L6">
+        <v>7.8</v>
+      </c>
+      <c r="N6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>26</v>
       </c>
       <c r="B7">
+        <v>25.2</v>
+      </c>
+      <c r="C7">
         <v>22</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>23</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J7">
+        <v>25.4</v>
+      </c>
+      <c r="L7">
+        <v>24.1</v>
+      </c>
+      <c r="N7">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>24</v>
       </c>
       <c r="B8">
+        <v>25.1</v>
+      </c>
+      <c r="C8">
         <v>24</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>23</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>32</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J8">
+        <v>24.4</v>
+      </c>
+      <c r="L8">
+        <v>24</v>
+      </c>
+      <c r="N8">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>21</v>
       </c>
       <c r="B9">
+        <v>21.7</v>
+      </c>
+      <c r="C9">
         <v>23</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>20</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J9">
+        <v>20.9</v>
+      </c>
+      <c r="L9">
+        <v>21.6</v>
+      </c>
+      <c r="N9">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>17</v>
       </c>
       <c r="B10">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="C10">
         <v>18</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>18</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J10">
+        <v>16</v>
+      </c>
+      <c r="L10">
+        <v>17.7</v>
+      </c>
+      <c r="N10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>11</v>
       </c>
       <c r="B11">
+        <v>10.5</v>
+      </c>
+      <c r="C11">
         <v>14</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>15</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J11">
+        <v>13.4</v>
+      </c>
+      <c r="L11">
+        <v>12.6</v>
+      </c>
+      <c r="N11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>18</v>
       </c>
       <c r="B12">
+        <v>16.8</v>
+      </c>
+      <c r="C12">
         <v>17</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>19</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J12">
+        <v>18.3</v>
+      </c>
+      <c r="L12">
+        <v>17.7</v>
+      </c>
+      <c r="N12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>21</v>
       </c>
       <c r="B13">
+        <v>21.9</v>
+      </c>
+      <c r="C13">
         <v>21</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>21</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J13">
+        <v>22</v>
+      </c>
+      <c r="L13">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="N13">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>22</v>
       </c>
       <c r="B14">
+        <v>22.6</v>
+      </c>
+      <c r="C14">
         <v>22</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>22</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>18</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J14">
+        <v>22.1</v>
+      </c>
+      <c r="L14">
+        <v>21.9</v>
+      </c>
+      <c r="N14">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>21</v>
       </c>
       <c r="B15">
+        <v>21.9</v>
+      </c>
+      <c r="C15">
         <v>23</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>21</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>20</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J15">
+        <v>19.8</v>
+      </c>
+      <c r="L15">
+        <v>21.8</v>
+      </c>
+      <c r="N15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>18</v>
       </c>
       <c r="B16">
+        <v>16.8</v>
+      </c>
+      <c r="C16">
         <v>17</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>17</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J16">
+        <v>17.8</v>
+      </c>
+      <c r="L16">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="N16">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>11</v>
       </c>
       <c r="B17">
+        <v>10.5</v>
+      </c>
+      <c r="C17">
         <v>9</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>17</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J17">
+        <v>12.3</v>
+      </c>
+      <c r="L17">
+        <v>13.5</v>
+      </c>
+      <c r="N17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="C18">
         <v>14</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>17</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>27</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J18">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="L18">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="N18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>21</v>
       </c>
       <c r="B19">
+        <v>21.7</v>
+      </c>
+      <c r="C19">
         <v>23</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>20</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>13</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J19">
+        <v>21.7</v>
+      </c>
+      <c r="L19">
+        <v>20.7</v>
+      </c>
+      <c r="N19">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>24</v>
       </c>
       <c r="B20">
+        <v>25.1</v>
+      </c>
+      <c r="C20">
         <v>26</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>23</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J20">
+        <v>24.2</v>
+      </c>
+      <c r="L20">
+        <v>24.1</v>
+      </c>
+      <c r="N20">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>26</v>
       </c>
       <c r="B21">
+        <v>25.2</v>
+      </c>
+      <c r="C21">
         <v>28</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>22</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>31</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J21">
+        <v>24.2</v>
+      </c>
+      <c r="L21">
+        <v>25.6</v>
+      </c>
+      <c r="N21">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>5</v>
       </c>
       <c r="B22">
+        <v>4.5</v>
+      </c>
+      <c r="C22">
         <v>7</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>10</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J22">
+        <v>7.5</v>
+      </c>
+      <c r="L22">
+        <v>11.7</v>
+      </c>
+      <c r="N22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>10</v>
       </c>
       <c r="B23">
+        <v>10.6</v>
+      </c>
+      <c r="C23">
         <v>10</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>13</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>15</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J23">
+        <v>12.3</v>
+      </c>
+      <c r="L23">
+        <v>12.6</v>
+      </c>
+      <c r="N23">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>16</v>
       </c>
       <c r="B24">
+        <v>16.8</v>
+      </c>
+      <c r="C24">
         <v>20</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>18</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>12</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J24">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="L24">
+        <v>17</v>
+      </c>
+      <c r="N24">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>25</v>
       </c>
       <c r="B25">
+        <v>25.5</v>
+      </c>
+      <c r="C25">
         <v>26</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>24</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J25">
+        <v>28</v>
+      </c>
+      <c r="L25">
+        <v>23.7</v>
+      </c>
+      <c r="N25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>44</v>
       </c>
       <c r="B26">
+        <v>42.6</v>
+      </c>
+      <c r="C26">
         <v>37</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>36</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>46</v>
+      </c>
+      <c r="J26">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="L26">
+        <v>35.1</v>
+      </c>
+      <c r="N26">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
